--- a/web/tables/generators/R22_profi_odpoledne.xlsx
+++ b/web/tables/generators/R22_profi_odpoledne.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="FINAL" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Body</t>
   </si>
@@ -88,9 +88,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
@@ -158,6 +155,18 @@
   </si>
   <si>
     <t>Odpolední turnaj</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>2.</t>
   </si>
 </sst>
 </file>
@@ -512,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -582,7 +591,7 @@
       </c>
       <c r="H2" t="str">
         <f>config!H2</f>
-        <v>1</v>
+        <v>1.</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -615,7 +624,7 @@
       </c>
       <c r="H3" t="str">
         <f>config!H3</f>
-        <v>3</v>
+        <v>3.</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -648,7 +657,7 @@
       </c>
       <c r="H4" t="str">
         <f>config!H4</f>
-        <v>4</v>
+        <v>4.</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -681,7 +690,7 @@
       </c>
       <c r="H5" t="str">
         <f>config!H5</f>
-        <v>2</v>
+        <v>2.</v>
       </c>
     </row>
   </sheetData>
@@ -693,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -708,19 +717,19 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -734,106 +743,106 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
